--- a/homework/30.xlsx
+++ b/homework/30.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B16E921-C432-4471-8C1D-94387EC717BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C0DABB-3BA3-4A7C-A88B-F0824E689B81}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8730" yWindow="4095" windowWidth="15330" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20850" yWindow="2160" windowWidth="15330" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>I might see you tomorrow</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,6 +42,70 @@
   </si>
   <si>
     <t>29.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I might go away</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I might buy a new car</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I might go (home) by taxi / I might get(take) a taxi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I might eat(have) fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I might see Kate(her) on Monday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>he might get up early</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>he isn't working tomorrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>he might be at home tomorrow morning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>he is going out in the afternoon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>he might go shopping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>he might (go to) watch television</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I might work tomorrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I might play game tomorrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I might sleep tomorrow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -73,12 +137,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -93,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -102,7 +172,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -444,7 +515,7 @@
   <dimension ref="A3:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -523,67 +594,140 @@
       <c r="B12" s="1">
         <v>2</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C13" s="4"/>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C14" s="6"/>
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C15" s="6"/>
+      <c r="B15" s="1">
+        <v>5</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="B16" s="1">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="1">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="1">
+        <v>5</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="1">
+        <v>6</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="1">
+        <v>7</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="1">
+        <v>8</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C28" s="3"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="1">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="1">
+        <v>3</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C32" s="3"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.15">
